--- a/data/trans_camb/P14B_x_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Habitat-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,31</t>
+          <t>0,77; 8,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 10,4</t>
+          <t>0,82; 9,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 13,38</t>
+          <t>3,42; 12,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,29</t>
+          <t>3,65; 10,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,98</t>
+          <t>2,72; 8,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,91</t>
+          <t>3,03; 7,81</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,83</t>
+          <t>0,78; 2,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,71</t>
+          <t>4,35; 8,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,46</t>
+          <t>5,92; 10,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,37</t>
+          <t>5,11; 8,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,27</t>
+          <t>3,6; 6,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,74</t>
+          <t>5,33; 7,89</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,52</t>
+          <t>0,92; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,65</t>
+          <t>1,63; 3,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,83</t>
+          <t>4,74; 7,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,49</t>
+          <t>6,0; 8,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,88</t>
+          <t>3,06; 4,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,76</t>
+          <t>4,09; 5,83</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,91</t>
+          <t>1,47; 3,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,52</t>
+          <t>2,26; 5,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,74</t>
+          <t>5,05; 8,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,84</t>
+          <t>5,71; 11,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,74</t>
+          <t>3,62; 5,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,72</t>
+          <t>4,82; 7,81</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,17</t>
+          <t>1,36; 3,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,95</t>
+          <t>3,28; 5,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,21</t>
+          <t>5,01; 8,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,0</t>
+          <t>6,99; 10,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,44</t>
+          <t>3,47; 5,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,58</t>
+          <t>5,65; 7,78</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,66</t>
+          <t>3,24; 4,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,89; 7,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,59</t>
+          <t>6,83; 8,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,93; 4,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,38; 6,51</t>
+          <t>5,4; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14B_x_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,94</t>
+          <t>0,77; 8,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 12,99</t>
+          <t>3,51; 13,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,97</t>
+          <t>2,84; 8,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,91</t>
+          <t>0,74; 2,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,7</t>
+          <t>5,93; 10,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,23</t>
+          <t>3,7; 6,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,57</t>
+          <t>0,98; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,83</t>
+          <t>4,71; 7,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 4,82</t>
+          <t>3,18; 4,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,77</t>
+          <t>1,36; 3,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,9</t>
+          <t>5,07; 8,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 5,88</t>
+          <t>3,68; 6,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,23</t>
+          <t>1,36; 3,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,34</t>
+          <t>4,99; 8,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,39</t>
+          <t>3,49; 5,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,5</t>
+          <t>1,49; 2,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,66</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,89</t>
+          <t>3,85; 4,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">

--- a/data/trans_camb/P14B_x_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,01</t>
+          <t>0,79; 8,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 9,65</t>
+          <t>1,35; 10,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 13,28</t>
+          <t>3,51; 13,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,19</t>
+          <t>3,37; 9,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,97</t>
+          <t>2,68; 8,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,81</t>
+          <t>3,02; 7,91</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,96</t>
+          <t>0,79; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,47</t>
+          <t>4,48; 8,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,42</t>
+          <t>5,79; 10,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,48</t>
+          <t>5,13; 8,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,34</t>
+          <t>3,6; 6,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,89</t>
+          <t>5,21; 7,74</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,64</t>
+          <t>0,99; 2,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,71</t>
+          <t>1,7; 3,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,81</t>
+          <t>4,67; 7,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 8,65</t>
+          <t>5,93; 8,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,85</t>
+          <t>3,04; 4,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,83</t>
+          <t>4,07; 5,76</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,6</t>
+          <t>1,45; 3,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,57</t>
+          <t>2,2; 5,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,88</t>
+          <t>5,02; 8,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,24</t>
+          <t>5,89; 10,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,0</t>
+          <t>3,6; 5,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,81</t>
+          <t>4,81; 7,72</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,2</t>
+          <t>1,36; 3,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,99</t>
+          <t>3,33; 5,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,06</t>
+          <t>4,89; 8,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,99; 10,01</t>
+          <t>7,03; 10,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,39</t>
+          <t>3,54; 5,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,78</t>
+          <t>5,61; 7,58</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,46</t>
+          <t>1,53; 2,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,69</t>
+          <t>3,19; 4,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,87; 7,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,67</t>
+          <t>6,87; 8,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,91</t>
+          <t>3,92; 4,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,55</t>
+          <t>5,38; 6,51</t>
         </is>
       </c>
     </row>
